--- a/pred_ohlcv/54_21/2019-11-01 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ANKR ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-2152104.7173</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2172104.7173</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-981040.8000000003</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1323576.4851</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1065225.8706</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-831791.0392000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-822169.1840000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-914440.9843000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1013637.3802</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1290379.7203</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1290379.7203</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1655118.3839</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2004621.3869</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1096580.5363</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1096580.5363</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1116580.5363</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1120316.7837</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1841527.8291</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1840697.8667</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1841534.6712</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1888514.6712</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3052803.5295</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3072803.5295</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2733777.0976</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1912576.5359</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2014868.8086</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2006812.3086</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2569504.6098</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3118823.6098</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ANKR ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-2152104.7173</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2172104.7173</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-907047.2644000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-981040.8000000003</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1481666.7786</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1493795.7786</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-914440.9843000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1013637.3802</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1290379.7203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1655118.3839</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2004621.3869</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1096580.5363</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1841527.8291</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1840697.8667</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3052803.5295</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3072803.5295</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3072793.5295</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3112783.5295</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2733777.0976</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2733777.0976</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2821767.8997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2821767.8997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1912576.5359</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2014868.8086</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2569504.6098</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3118823.6098</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3118813.6098</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
